--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/FrameworkTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2891C2-57AA-4A10-A032-10F5A8867EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10248" yWindow="17508" windowWidth="21252" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,49 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>https://pro.upstox.com/login</t>
+  </si>
+  <si>
+    <t>UpstoxUrl</t>
+  </si>
+  <si>
+    <t>Username and password of the upstox</t>
+  </si>
+  <si>
+    <t>USCredentials</t>
+  </si>
+  <si>
+    <t>My Projects</t>
+  </si>
+  <si>
+    <t>Upstoxcredentials</t>
+  </si>
+  <si>
+    <t>Dateofbirth</t>
+  </si>
+  <si>
+    <t>Date of birth of the user</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>OrderExcelPath</t>
+  </si>
+  <si>
+    <t>G:\Work Area\UiPath\UpstoxOnlineOrders\Data\Input\Orders.xlsx</t>
+  </si>
+  <si>
+    <t>Path for the orders Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -177,6 +213,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -187,6 +224,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -208,10 +252,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -221,8 +266,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,15 +585,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,17 +641,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,11 +665,38 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1610,8 +1686,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{AACC4587-2497-49E0-A412-EC45A96B3F80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1623,12 +1702,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1744,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1869,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2780,18 +2859,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2830,7 +2909,20 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3828,7 +3920,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work Area\UiPath\UpstoxOnlineOrders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2891C2-57AA-4A10-A032-10F5A8867EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2F246E-219C-490D-B301-D6B7AE1C89E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Path for the orders Excel</t>
+  </si>
+  <si>
+    <t>OrderExcelSheet</t>
+  </si>
+  <si>
+    <t>orders</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -697,7 +703,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
